--- a/end-to-end form.xlsx
+++ b/end-to-end form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\irene\project3-featured-ticket-viewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A2487-6347-4A2F-9CEA-7585B57C09F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918093DC-5F89-4435-BCFF-3C5ACC859350}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="76680" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{F6F1646B-7FA1-4AC8-933E-A6E39AE2F582}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>route</t>
   </si>
@@ -42,54 +42,27 @@
     <t>api</t>
   </si>
   <si>
-    <t>error.erb</t>
-  </si>
-  <si>
     <t>index.erb</t>
   </si>
   <si>
     <t>get '/' do</t>
   </si>
   <si>
-    <t>` / `</t>
-  </si>
-  <si>
-    <t>`/error`</t>
-  </si>
-  <si>
-    <t>get '/error' do</t>
-  </si>
-  <si>
     <t>tickets.erb</t>
   </si>
   <si>
-    <t>`/tickets`</t>
-  </si>
-  <si>
-    <t>post `/tickets' do</t>
-  </si>
-  <si>
     <t>https://#{session[:accountname]}.zendesk.com/api/v2/tickets.json?per_page=25&amp;include=users</t>
   </si>
   <si>
-    <t>`/tickets/next_page`</t>
-  </si>
-  <si>
     <t>get `/tickets/next_page` do</t>
   </si>
   <si>
-    <t>`/tickets/prev_page`</t>
-  </si>
-  <si>
     <t>get `/tickets/prev_page` do</t>
   </si>
   <si>
     <t>ticket.erb</t>
   </si>
   <si>
-    <t>`/ticket/:id`</t>
-  </si>
-  <si>
     <t>get '/ticket/:id' do</t>
   </si>
   <si>
@@ -117,32 +90,86 @@
     <t>layout.erb</t>
   </si>
   <si>
-    <t>redirect</t>
-  </si>
-  <si>
-    <t>show tickets on page 1</t>
-  </si>
-  <si>
     <t>get `/tickets/page/:page` do</t>
   </si>
   <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>link (5)</t>
-  </si>
-  <si>
-    <t>`/tickets/page/5`</t>
-  </si>
-  <si>
     <t>https://#{session[:accountname]}.zendesk.com/api/v2/tickets.json?include=users&amp;page=#{params[:page]}&amp;per_page=25</t>
+  </si>
+  <si>
+    <t>/tickets/prev_page</t>
+  </si>
+  <si>
+    <t>/tickets/next_page</t>
+  </si>
+  <si>
+    <t>/tickets</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/tickets/page/5</t>
+  </si>
+  <si>
+    <t>/ticket/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="/tickets/page/5&gt;5&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>route in erb</t>
+  </si>
+  <si>
+    <t>&lt;a href="/"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="/tickets"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="/contact"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>/contact</t>
+  </si>
+  <si>
+    <t>get '/contact' do</t>
+  </si>
+  <si>
+    <t>contact.erb</t>
+  </si>
+  <si>
+    <t>get '/tickets' do</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>post `/login' do</t>
+  </si>
+  <si>
+    <t>&lt;form action="/login" method="post"&gt;</t>
+  </si>
+  <si>
+    <t>dashboard.erb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login </t>
+  </si>
+  <si>
+    <t>&lt;a href="/ticket/1&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>index .erb</t>
+  </si>
+  <si>
+    <t>show tickets on page 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,13 +207,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -209,19 +263,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,14 +611,14 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="28.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="109.265625" style="1" bestFit="1" customWidth="1"/>
@@ -558,219 +626,259 @@
     <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" location="{session[:accountname]}.zendesk.com/api/v2/tickets.json?per_page=25&amp;include=users" xr:uid="{A2379CC6-642F-44C5-B2D0-30F596C63B2E}"/>
-    <hyperlink ref="F6" r:id="rId2" location="{session[:accountname]}.zendesk.com/api/v2/tickets.json?per_page=25&amp;include=users" xr:uid="{3A76A967-76F6-4018-9CFC-93AEF9244A7D}"/>
-    <hyperlink ref="F7" r:id="rId3" location="{session[:accountname]}.zendesk.com/api/v2/tickets.json?per_page=25&amp;include=users" xr:uid="{E1D86EC5-FE18-4F2B-9201-AF29626828C3}"/>
-    <hyperlink ref="F8" r:id="rId4" location="{session[:accountname]}.zendesk.com/api/v2/tickets/#{params[:id]}.json?include=users" xr:uid="{66FBB7C3-0BA0-4EC2-8D7E-8B9D74D7C8C5}"/>
-  </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId5"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>